--- a/dataset/raw_bmkg/2022/Desember-2022.xlsx
+++ b/dataset/raw_bmkg/2022/Desember-2022.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xml:space="preserve" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifi\OneDrive\Documents\skripsi\code\dataset\raw_bmkg\2022\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79176D31-C6D7-49CD-9D78-856BAFB0FDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Harian - Table" sheetId="1" r:id="rId3"/>
+    <sheet name="Data Harian - Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="71">
   <si>
     <t>ID WMO</t>
   </si>
@@ -233,18 +239,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -277,37 +277,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -315,83 +292,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -689,19 +594,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xml:space="preserve" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="14.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="14.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -717,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="14.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -725,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="14.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -733,7 +638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="14.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -741,7 +646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -776,25 +681,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>24.80</v>
+        <v>24.8</v>
       </c>
       <c r="C10" s="2">
-        <v>31.40</v>
+        <v>31.4</v>
       </c>
       <c r="D10" s="2">
-        <v>27.20</v>
+        <v>27.2</v>
       </c>
       <c r="E10" s="2">
         <v>85</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>8.90</v>
+        <v>8.9</v>
       </c>
       <c r="H10" s="2">
         <v>6</v>
@@ -809,27 +714,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>24.70</v>
+        <v>24.7</v>
       </c>
       <c r="C11" s="2">
-        <v>29.40</v>
+        <v>29.4</v>
       </c>
       <c r="D11" s="2">
-        <v>26.70</v>
+        <v>26.7</v>
       </c>
       <c r="E11" s="2">
         <v>86</v>
       </c>
       <c r="F11" s="2">
-        <v>1.60</v>
+        <v>1.6</v>
       </c>
       <c r="G11" s="2">
-        <v>7.20</v>
+        <v>7.2</v>
       </c>
       <c r="H11" s="2">
         <v>6</v>
@@ -844,15 +749,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>22.40</v>
+        <v>22.4</v>
       </c>
       <c r="C12" s="2">
-        <v>30.10</v>
+        <v>30.1</v>
       </c>
       <c r="D12" s="2">
         <v>27</v>
@@ -861,10 +766,10 @@
         <v>83</v>
       </c>
       <c r="F12" s="2">
-        <v>13.30</v>
+        <v>13.3</v>
       </c>
       <c r="G12" s="2">
-        <v>0.10</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>
@@ -879,27 +784,27 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2">
-        <v>24.40</v>
+        <v>24.4</v>
       </c>
       <c r="C13" s="2">
-        <v>29.70</v>
+        <v>29.7</v>
       </c>
       <c r="D13" s="2">
-        <v>26.30</v>
+        <v>26.3</v>
       </c>
       <c r="E13" s="2">
         <v>91</v>
       </c>
       <c r="F13" s="2">
-        <v>13.30</v>
+        <v>13.3</v>
       </c>
       <c r="G13" s="2">
-        <v>5.30</v>
+        <v>5.3</v>
       </c>
       <c r="H13" s="2">
         <v>5</v>
@@ -914,18 +819,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="2">
-        <v>24.40</v>
+        <v>24.4</v>
       </c>
       <c r="C14" s="2">
         <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>26.60</v>
+        <v>26.6</v>
       </c>
       <c r="E14" s="2">
         <v>91</v>
@@ -934,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <v>0.10</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="2">
         <v>6</v>
@@ -949,27 +854,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>24.60</v>
+        <v>24.6</v>
       </c>
       <c r="C15" s="2">
-        <v>31.30</v>
+        <v>31.3</v>
       </c>
       <c r="D15" s="2">
-        <v>26.90</v>
+        <v>26.9</v>
       </c>
       <c r="E15" s="2">
         <v>85</v>
       </c>
       <c r="F15" s="2">
-        <v>0.90</v>
+        <v>0.9</v>
       </c>
       <c r="G15" s="2">
-        <v>2.90</v>
+        <v>2.9</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
@@ -984,15 +889,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>24.10</v>
+        <v>24.1</v>
       </c>
       <c r="C16" s="2">
-        <v>31.60</v>
+        <v>31.6</v>
       </c>
       <c r="D16" s="2">
         <v>28</v>
@@ -1004,7 +909,7 @@
         <v>8888</v>
       </c>
       <c r="G16" s="2">
-        <v>7.90</v>
+        <v>7.9</v>
       </c>
       <c r="H16" s="2">
         <v>4</v>
@@ -1019,27 +924,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>22.80</v>
+        <v>22.8</v>
       </c>
       <c r="C17" s="2">
         <v>29</v>
       </c>
       <c r="D17" s="2">
-        <v>26.50</v>
+        <v>26.5</v>
       </c>
       <c r="E17" s="2">
         <v>91</v>
       </c>
       <c r="F17" s="2">
-        <v>15.60</v>
+        <v>15.6</v>
       </c>
       <c r="G17" s="2">
-        <v>7.50</v>
+        <v>7.5</v>
       </c>
       <c r="H17" s="2">
         <v>4</v>
@@ -1054,27 +959,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>24.20</v>
+        <v>24.2</v>
       </c>
       <c r="C18" s="2">
-        <v>28.40</v>
+        <v>28.4</v>
       </c>
       <c r="D18" s="2">
-        <v>25.70</v>
+        <v>25.7</v>
       </c>
       <c r="E18" s="2">
         <v>90</v>
       </c>
       <c r="F18" s="2">
-        <v>1.80</v>
+        <v>1.8</v>
       </c>
       <c r="G18" s="2">
-        <v>2.40</v>
+        <v>2.4</v>
       </c>
       <c r="H18" s="2">
         <v>4</v>
@@ -1089,24 +994,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>24.30</v>
+        <v>24.3</v>
       </c>
       <c r="C19" s="2">
-        <v>29.80</v>
+        <v>29.8</v>
       </c>
       <c r="D19" s="2">
-        <v>27.10</v>
+        <v>27.1</v>
       </c>
       <c r="E19" s="2">
         <v>82</v>
       </c>
       <c r="F19" s="2">
-        <v>4.80</v>
+        <v>4.8</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
@@ -1124,7 +1029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1132,17 +1037,17 @@
         <v>25</v>
       </c>
       <c r="C20" s="2">
-        <v>27.80</v>
+        <v>27.8</v>
       </c>
       <c r="D20" s="2">
-        <v>25.90</v>
+        <v>25.9</v>
       </c>
       <c r="E20" s="2">
         <v>93</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>1.50</v>
+        <v>1.5</v>
       </c>
       <c r="H20" s="2">
         <v>4</v>
@@ -1157,27 +1062,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>23.90</v>
+        <v>23.9</v>
       </c>
       <c r="C21" s="2">
-        <v>28.70</v>
+        <v>28.7</v>
       </c>
       <c r="D21" s="2">
-        <v>26.70</v>
+        <v>26.7</v>
       </c>
       <c r="E21" s="2">
         <v>89</v>
       </c>
       <c r="F21" s="2">
-        <v>24.80</v>
+        <v>24.8</v>
       </c>
       <c r="G21" s="2">
-        <v>0.10</v>
+        <v>0.1</v>
       </c>
       <c r="H21" s="2">
         <v>6</v>
@@ -1192,24 +1097,24 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="2">
-        <v>24.60</v>
+        <v>24.6</v>
       </c>
       <c r="C22" s="2">
-        <v>30.30</v>
+        <v>30.3</v>
       </c>
       <c r="D22" s="2">
-        <v>25.90</v>
+        <v>25.9</v>
       </c>
       <c r="E22" s="2">
         <v>94</v>
       </c>
       <c r="F22" s="2">
-        <v>25.10</v>
+        <v>25.1</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1227,18 +1132,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="2">
-        <v>24.80</v>
+        <v>24.8</v>
       </c>
       <c r="C23" s="2">
-        <v>28.20</v>
+        <v>28.2</v>
       </c>
       <c r="D23" s="2">
-        <v>25.80</v>
+        <v>25.8</v>
       </c>
       <c r="E23" s="2">
         <v>90</v>
@@ -1262,27 +1167,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="2">
-        <v>23.90</v>
+        <v>23.9</v>
       </c>
       <c r="C24" s="2">
-        <v>27.60</v>
+        <v>27.6</v>
       </c>
       <c r="D24" s="2">
-        <v>25.30</v>
+        <v>25.3</v>
       </c>
       <c r="E24" s="2">
         <v>92</v>
       </c>
       <c r="F24" s="2">
-        <v>35.50</v>
+        <v>35.5</v>
       </c>
       <c r="G24" s="2">
-        <v>0.50</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="2">
         <v>5</v>
@@ -1297,7 +1202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -1305,19 +1210,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>30.50</v>
+        <v>30.5</v>
       </c>
       <c r="D25" s="2">
-        <v>27.20</v>
+        <v>27.2</v>
       </c>
       <c r="E25" s="2">
         <v>86</v>
       </c>
       <c r="F25" s="2">
-        <v>4.40</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G25" s="2">
-        <v>0.20</v>
+        <v>0.2</v>
       </c>
       <c r="H25" s="2">
         <v>7</v>
@@ -1332,18 +1237,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="2">
-        <v>24.80</v>
+        <v>24.8</v>
       </c>
       <c r="C26" s="2">
-        <v>30.80</v>
+        <v>30.8</v>
       </c>
       <c r="D26" s="2">
-        <v>27.30</v>
+        <v>27.3</v>
       </c>
       <c r="E26" s="2">
         <v>88</v>
@@ -1352,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>6.70</v>
+        <v>6.7</v>
       </c>
       <c r="H26" s="2">
         <v>6</v>
@@ -1367,27 +1272,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="2">
-        <v>25.20</v>
+        <v>25.2</v>
       </c>
       <c r="C27" s="2">
-        <v>30.60</v>
+        <v>30.6</v>
       </c>
       <c r="D27" s="2">
-        <v>27.30</v>
+        <v>27.3</v>
       </c>
       <c r="E27" s="2">
         <v>86</v>
       </c>
       <c r="F27" s="2">
-        <v>0.20</v>
+        <v>0.2</v>
       </c>
       <c r="G27" s="2">
-        <v>7.80</v>
+        <v>7.8</v>
       </c>
       <c r="H27" s="2">
         <v>5</v>
@@ -1402,27 +1307,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="2">
-        <v>24.60</v>
+        <v>24.6</v>
       </c>
       <c r="C28" s="2">
-        <v>28.40</v>
+        <v>28.4</v>
       </c>
       <c r="D28" s="2">
-        <v>25.80</v>
+        <v>25.8</v>
       </c>
       <c r="E28" s="2">
         <v>90</v>
       </c>
       <c r="F28" s="2">
-        <v>5.40</v>
+        <v>5.4</v>
       </c>
       <c r="G28" s="2">
-        <v>4.40</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H28" s="2">
         <v>5</v>
@@ -1437,27 +1342,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="2">
-        <v>24.10</v>
+        <v>24.1</v>
       </c>
       <c r="C29" s="2">
-        <v>30.20</v>
+        <v>30.2</v>
       </c>
       <c r="D29" s="2">
-        <v>26.90</v>
+        <v>26.9</v>
       </c>
       <c r="E29" s="2">
         <v>86</v>
       </c>
       <c r="F29" s="2">
-        <v>0.40</v>
+        <v>0.4</v>
       </c>
       <c r="G29" s="2">
-        <v>2.50</v>
+        <v>2.5</v>
       </c>
       <c r="H29" s="2">
         <v>5</v>
@@ -1472,27 +1377,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="2">
-        <v>24.70</v>
+        <v>24.7</v>
       </c>
       <c r="C30" s="2">
-        <v>30.30</v>
+        <v>30.3</v>
       </c>
       <c r="D30" s="2">
-        <v>27.10</v>
+        <v>27.1</v>
       </c>
       <c r="E30" s="2">
         <v>86</v>
       </c>
       <c r="F30" s="2">
-        <v>0.30</v>
+        <v>0.3</v>
       </c>
       <c r="G30" s="2">
-        <v>7.70</v>
+        <v>7.7</v>
       </c>
       <c r="H30" s="2">
         <v>6</v>
@@ -1507,7 +1412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
@@ -1515,10 +1420,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="2">
-        <v>28.40</v>
+        <v>28.4</v>
       </c>
       <c r="D31" s="2">
-        <v>26.10</v>
+        <v>26.1</v>
       </c>
       <c r="E31" s="2">
         <v>86</v>
@@ -1527,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>7.50</v>
+        <v>7.5</v>
       </c>
       <c r="H31" s="2">
         <v>6</v>
@@ -1542,27 +1447,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="2">
-        <v>23.90</v>
+        <v>23.9</v>
       </c>
       <c r="C32" s="2">
         <v>30</v>
       </c>
       <c r="D32" s="2">
-        <v>26.30</v>
+        <v>26.3</v>
       </c>
       <c r="E32" s="2">
         <v>84</v>
       </c>
       <c r="F32" s="2">
-        <v>12.40</v>
+        <v>12.4</v>
       </c>
       <c r="G32" s="2">
-        <v>0.90</v>
+        <v>0.9</v>
       </c>
       <c r="H32" s="2">
         <v>9</v>
@@ -1577,18 +1482,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="2">
-        <v>24.40</v>
+        <v>24.4</v>
       </c>
       <c r="C33" s="2">
-        <v>30.30</v>
+        <v>30.3</v>
       </c>
       <c r="D33" s="2">
-        <v>27.50</v>
+        <v>27.5</v>
       </c>
       <c r="E33" s="2">
         <v>73</v>
@@ -1612,18 +1517,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>25.50</v>
+        <v>25.5</v>
       </c>
       <c r="C34" s="2">
-        <v>30.70</v>
+        <v>30.7</v>
       </c>
       <c r="D34" s="2">
-        <v>27.30</v>
+        <v>27.3</v>
       </c>
       <c r="E34" s="2">
         <v>78</v>
@@ -1632,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>8.10</v>
+        <v>8.1</v>
       </c>
       <c r="H34" s="2">
         <v>7</v>
@@ -1647,18 +1552,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="2">
-        <v>25.60</v>
+        <v>25.6</v>
       </c>
       <c r="C35" s="2">
-        <v>29.90</v>
+        <v>29.9</v>
       </c>
       <c r="D35" s="2">
-        <v>27.50</v>
+        <v>27.5</v>
       </c>
       <c r="E35" s="2">
         <v>76</v>
@@ -1667,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>6.50</v>
+        <v>6.5</v>
       </c>
       <c r="H35" s="2">
         <v>8</v>
@@ -1682,18 +1587,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="2">
-        <v>25.60</v>
+        <v>25.6</v>
       </c>
       <c r="C36" s="2">
-        <v>30.20</v>
+        <v>30.2</v>
       </c>
       <c r="D36" s="2">
-        <v>27.40</v>
+        <v>27.4</v>
       </c>
       <c r="E36" s="2">
         <v>76</v>
@@ -1702,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <v>4.50</v>
+        <v>4.5</v>
       </c>
       <c r="H36" s="2">
         <v>7</v>
@@ -1717,27 +1622,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="2">
-        <v>24.60</v>
+        <v>24.6</v>
       </c>
       <c r="C37" s="2">
-        <v>29.40</v>
+        <v>29.4</v>
       </c>
       <c r="D37" s="2">
-        <v>26.50</v>
+        <v>26.5</v>
       </c>
       <c r="E37" s="2">
         <v>82</v>
       </c>
       <c r="F37" s="2">
-        <v>1.20</v>
+        <v>1.2</v>
       </c>
       <c r="G37" s="2">
-        <v>4.50</v>
+        <v>4.5</v>
       </c>
       <c r="H37" s="2">
         <v>5</v>
@@ -1752,27 +1657,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="2">
-        <v>25.40</v>
+        <v>25.4</v>
       </c>
       <c r="C38" s="2">
-        <v>29.90</v>
+        <v>29.9</v>
       </c>
       <c r="D38" s="2">
-        <v>26.70</v>
+        <v>26.7</v>
       </c>
       <c r="E38" s="2">
         <v>84</v>
       </c>
       <c r="F38" s="2">
-        <v>0.20</v>
+        <v>0.2</v>
       </c>
       <c r="G38" s="2">
-        <v>4.10</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H38" s="2">
         <v>7</v>
@@ -1787,7 +1692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
@@ -1795,7 +1700,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="2">
-        <v>30.10</v>
+        <v>30.1</v>
       </c>
       <c r="D39" s="2">
         <v>27</v>
@@ -1804,10 +1709,10 @@
         <v>76</v>
       </c>
       <c r="F39" s="2">
-        <v>16.20</v>
+        <v>16.2</v>
       </c>
       <c r="G39" s="2">
-        <v>2.60</v>
+        <v>2.6</v>
       </c>
       <c r="H39" s="2">
         <v>5</v>
@@ -1822,27 +1727,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="2">
-        <v>23.80</v>
+        <v>23.8</v>
       </c>
       <c r="C40" s="2">
-        <v>30.80</v>
+        <v>30.8</v>
       </c>
       <c r="D40" s="2">
-        <v>26.90</v>
+        <v>26.9</v>
       </c>
       <c r="E40" s="2">
         <v>82</v>
       </c>
       <c r="F40" s="2">
-        <v>1.20</v>
+        <v>1.2</v>
       </c>
       <c r="G40" s="2">
-        <v>4.40</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H40" s="2">
         <v>7</v>
@@ -1857,67 +1762,67 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="14.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="14.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="14.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="14.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="14.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="14.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="14.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="14.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="14.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="14.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="14.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="14.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="14.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -1925,6 +1830,1137 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF77391F-9CB9-448C-B659-CA583D33F6BF}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>250</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>270</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>83</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>280</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>91</v>
+      </c>
+      <c r="F5" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>180</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>91</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>190</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8888</v>
+      </c>
+      <c r="G8" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>300</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>91</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>340</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2">
+        <v>24.2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>330</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2">
+        <v>24.3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="D11" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>230</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>93</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>270</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>89</v>
+      </c>
+      <c r="F13" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25.9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>94</v>
+      </c>
+      <c r="F14" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2">
+        <v>70</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>90</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>92</v>
+      </c>
+      <c r="F16" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>40</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>86</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="2">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2">
+        <v>40</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="D18" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>88</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <v>50</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>86</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>70</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="D20" s="2">
+        <v>25.8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>90</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2">
+        <v>24.1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="E21" s="2">
+        <v>86</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>40</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>27.1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>86</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="H22" s="2">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2">
+        <v>40</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>86</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>320</v>
+      </c>
+      <c r="J23" s="2">
+        <v>4</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23.9</v>
+      </c>
+      <c r="C24" s="2">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>84</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="H24" s="2">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2">
+        <v>50</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30.3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="D26" s="2">
+        <v>27.3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>78</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2">
+        <v>20</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>76</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2">
+        <v>360</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="C28" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>76</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2">
+        <v>50</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>82</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
+      <c r="I29" s="2">
+        <v>30</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="D30" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="E30" s="2">
+        <v>84</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H30" s="2">
+        <v>7</v>
+      </c>
+      <c r="I30" s="2">
+        <v>50</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2">
+        <v>76</v>
+      </c>
+      <c r="F31" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>20</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="C32" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="E32" s="2">
+        <v>82</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7</v>
+      </c>
+      <c r="I32" s="2">
+        <v>360</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>